--- a/results/multi_eval_metrics.xlsx
+++ b/results/multi_eval_metrics.xlsx
@@ -492,352 +492,352 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9629</v>
+        <v>0.9226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9073</v>
+        <v>0.9772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7836734693877551</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01762749445676275</v>
+        <v>0.001219512195121951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9823725055432373</v>
+        <v>0.998780487804878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2163265306122449</v>
+        <v>0.7785714285714286</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0.01441677588466579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9823725055432373</v>
+        <v>0.998780487804878</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4006504819222589</v>
+        <v>0.1113240418118467</v>
       </c>
       <c r="J2" t="n">
-        <v>0.97663396891877</v>
+        <v>0.921919770773639</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02336603108123003</v>
+        <v>0.07808022922636104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9741</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8804</v>
+        <v>0.9429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9127753303964757</v>
+        <v>0.4696035242290749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01804850535815003</v>
+        <v>0.004286520022560632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9819514946418499</v>
+        <v>0.9957134799774394</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08722466960352426</v>
+        <v>0.5303964757709252</v>
       </c>
       <c r="G3" t="n">
-        <v>1.616161616161616</v>
+        <v>0.06312292358803986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9819514946418499</v>
+        <v>0.9957134799774394</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4654119178773129</v>
+        <v>0.2369450221258178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9887551113130395</v>
+        <v>0.9361544172234595</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0112448886869605</v>
+        <v>0.06384558277654051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9512</v>
+        <v>0.9258</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.9462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6027131782945736</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008697591436217662</v>
+        <v>0.01382694023193577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9913024085637824</v>
+        <v>0.9861730597680642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3972868217054264</v>
+        <v>0.5988372093023255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1902439024390244</v>
+        <v>0.2006472491909385</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9913024085637824</v>
+        <v>0.9861730597680642</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3057053848653956</v>
+        <v>0.2074948654648051</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9559139784946237</v>
+        <v>0.9346861128725428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04408602150537633</v>
+        <v>0.06531388712745723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9665</v>
+        <v>0.9468</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8799</v>
+        <v>0.9064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9287128712871288</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02925472747497219</v>
+        <v>0.02547274749721913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9707452725250278</v>
+        <v>0.9745272525027808</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07128712871287124</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.652777777777778</v>
+        <v>0.7557755775577558</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9707452725250278</v>
+        <v>0.9745272525027808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4789837993810505</v>
+        <v>0.3627363737486096</v>
       </c>
       <c r="J5" t="n">
-        <v>0.99181725196045</v>
+        <v>0.9665710503089144</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008182748039549992</v>
+        <v>0.03342894969108556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8556</v>
+        <v>0.9091</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9887983706720977</v>
+        <v>0.1527494908350306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1589044133954313</v>
+        <v>0.008538478598358839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8410955866045686</v>
+        <v>0.9914615214016411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01120162932790225</v>
+        <v>0.8472505091649695</v>
       </c>
       <c r="G6" t="n">
-        <v>130.2727272727273</v>
+        <v>0.09254807692307693</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8410955866045686</v>
+        <v>0.9914615214016411</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5738513920337646</v>
+        <v>0.08064398471669471</v>
       </c>
       <c r="J6" t="n">
-        <v>0.99855186940495</v>
+        <v>0.9148674920699887</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001448130595050001</v>
+        <v>0.08513250793001126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.968</v>
+        <v>0.8744</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8898</v>
+        <v>0.8002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9383408071748879</v>
+        <v>0.9159192825112108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02909530083443127</v>
+        <v>0.1296662274923145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9709046991655688</v>
+        <v>0.8703337725076855</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06165919282511212</v>
+        <v>0.0840807174887892</v>
       </c>
       <c r="G7" t="n">
-        <v>4.818181818181818</v>
+        <v>15.74666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9709046991655688</v>
+        <v>0.8703337725076855</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4837180540046596</v>
+        <v>0.5227927550017626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9938188356934142</v>
+        <v>0.990627343164209</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006181164306585774</v>
+        <v>0.009372656835791027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9559</v>
+        <v>0.9414</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9255</v>
+        <v>0.8673999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6586638830897703</v>
+        <v>0.8862212943632568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0126078301260783</v>
+        <v>0.05275381552753815</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9873921698739216</v>
+        <v>0.9472461844724619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3413361169102297</v>
+        <v>0.1137787056367432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3486238532110092</v>
+        <v>4.376146788990826</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9873921698739216</v>
+        <v>0.9472461844724619</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3356358566079243</v>
+        <v>0.4694875549453975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9646677471636953</v>
+        <v>0.9874337099377449</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0353322528363047</v>
+        <v>0.01256629006225507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9540999999999999</v>
+        <v>0.8435</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8805000000000001</v>
+        <v>0.7519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.857976653696498</v>
+        <v>0.9455252918287937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03488631297369595</v>
+        <v>0.1681899242086491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9651136870263041</v>
+        <v>0.8318100757913509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142023346303502</v>
+        <v>0.05447470817120625</v>
       </c>
       <c r="G9" t="n">
-        <v>2.143835616438356</v>
+        <v>26.94642857142857</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9651136870263041</v>
+        <v>0.8318100757913509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.446431483335097</v>
+        <v>0.5568576080187214</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9834185122089721</v>
+        <v>0.9925522010905705</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01658148779102786</v>
+        <v>0.007447798909429482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9394</v>
+        <v>0.9146</v>
       </c>
       <c r="B10" t="n">
-        <v>0.947</v>
+        <v>0.8902</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4609856262833675</v>
+        <v>0.6252566735112937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008974074894748505</v>
+        <v>0.05417682251274097</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9910259251052514</v>
+        <v>0.9458231774872591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5390143737166324</v>
+        <v>0.3747433264887063</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1542857142857143</v>
+        <v>1.33972602739726</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9910259251052514</v>
+        <v>0.9458231774872591</v>
       </c>
       <c r="I10" t="n">
-        <v>0.234979850589058</v>
+        <v>0.3397167480120173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9445617740232313</v>
+        <v>0.9589979779824759</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05543822597676873</v>
+        <v>0.04100202201752412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8991</v>
+        <v>0.8915999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9403</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.2586719524281467</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.0373707040373707</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.9626292959626293</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.7413280475718533</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.4491978609625669</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9626292959626293</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1480213282327587</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8991</v>
+        <v>0.9204509199191747</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1009</v>
+        <v>0.07954908008082529</v>
       </c>
     </row>
   </sheetData>

--- a/results/multi_eval_metrics.xlsx
+++ b/results/multi_eval_metrics.xlsx
@@ -492,352 +492,352 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9629</v>
+        <v>0.9896</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9073</v>
+        <v>0.9002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7836734693877551</v>
+        <v>0.9561224489795919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01762749445676275</v>
+        <v>0.006762749445676275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9823725055432373</v>
+        <v>0.9932372505543238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2163265306122449</v>
+        <v>0.04387755102040813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1.418604651162791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9823725055432373</v>
+        <v>0.9932372505543238</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4006504819222589</v>
+        <v>0.481442599212634</v>
       </c>
       <c r="J2" t="n">
-        <v>0.97663396891877</v>
+        <v>0.99522328371473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02336603108123003</v>
+        <v>0.004776716285269988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9741</v>
+        <v>0.9907</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8804</v>
+        <v>0.888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9127753303964757</v>
+        <v>0.9524229074889868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01804850535815003</v>
+        <v>0.004399323181049069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9819514946418499</v>
+        <v>0.9956006768189509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08722466960352426</v>
+        <v>0.04757709251101316</v>
       </c>
       <c r="G3" t="n">
-        <v>1.616161616161616</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9819514946418499</v>
+        <v>0.9956006768189509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4654119178773129</v>
+        <v>0.478411115335018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9887551113130395</v>
+        <v>0.9939189189189189</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0112448886869605</v>
+        <v>0.006081081081081074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9512</v>
+        <v>0.9745</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.8995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6027131782945736</v>
+        <v>0.8633720930232558</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008697591436217662</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9913024085637824</v>
+        <v>0.9872881355932204</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3972868217054264</v>
+        <v>0.1366279069767442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1902439024390244</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9913024085637824</v>
+        <v>0.9872881355932204</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3057053848653956</v>
+        <v>0.4380419787150177</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9559139784946237</v>
+        <v>0.9843246247915508</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04408602150537633</v>
+        <v>0.01567537520844919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9665</v>
+        <v>0.9739</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8799</v>
+        <v>0.8969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9287128712871288</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02925472747497219</v>
+        <v>0.01568409343715239</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9707452725250278</v>
+        <v>0.9843159065628476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07128712871287124</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.652777777777778</v>
+        <v>1.175</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9707452725250278</v>
+        <v>0.9843159065628476</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4789837993810505</v>
+        <v>0.4484361061245168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.99181725196045</v>
+        <v>0.9866205820046828</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008182748039549992</v>
+        <v>0.01337941799531717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8556</v>
+        <v>0.9754</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.9032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9887983706720977</v>
+        <v>0.8676171079429735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1589044133954313</v>
+        <v>0.01286316256376137</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8410955866045686</v>
+        <v>0.9871368374362386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01120162932790225</v>
+        <v>0.1323828920570265</v>
       </c>
       <c r="G6" t="n">
-        <v>130.2727272727273</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8410955866045686</v>
+        <v>0.9871368374362386</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5738513920337646</v>
+        <v>0.4402401352533675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.99855186940495</v>
+        <v>0.9856067316209035</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001448130595050001</v>
+        <v>0.01439326837909649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.968</v>
+        <v>0.9691</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8898</v>
+        <v>0.9197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9383408071748879</v>
+        <v>0.7769058295964125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02909530083443127</v>
+        <v>0.01207729468599034</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9709046991655688</v>
+        <v>0.9879227053140096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06165919282511212</v>
+        <v>0.2230941704035875</v>
       </c>
       <c r="G7" t="n">
-        <v>4.818181818181818</v>
+        <v>0.5527638190954773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9709046991655688</v>
+        <v>0.9879227053140096</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4837180540046596</v>
+        <v>0.3944915621412015</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9938188356934142</v>
+        <v>0.978362509513972</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006181164306585774</v>
+        <v>0.02163749048602803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9559</v>
+        <v>0.9835</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9255</v>
+        <v>0.8991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6586638830897703</v>
+        <v>0.9405010438413361</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0126078301260783</v>
+        <v>0.0119442601194426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9873921698739216</v>
+        <v>0.9880557398805574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3413361169102297</v>
+        <v>0.05949895615866385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3486238532110092</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9873921698739216</v>
+        <v>0.9880557398805574</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3356358566079243</v>
+        <v>0.4762226519803894</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9646677471636953</v>
+        <v>0.9936603269936604</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0353322528363047</v>
+        <v>0.006339673006339641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9540999999999999</v>
+        <v>0.9815</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8805000000000001</v>
+        <v>0.9001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.857976653696498</v>
+        <v>0.8959143968871596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03488631297369595</v>
+        <v>0.008693713776192599</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9651136870263041</v>
+        <v>0.9913062862238075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142023346303502</v>
+        <v>0.1040856031128404</v>
       </c>
       <c r="G9" t="n">
-        <v>2.143835616438356</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9651136870263041</v>
+        <v>0.9913062862238075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.446431483335097</v>
+        <v>0.4523040553316761</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9834185122089721</v>
+        <v>0.9881124319520054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01658148779102786</v>
+        <v>0.01188756804799462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9394</v>
+        <v>0.9669</v>
       </c>
       <c r="B10" t="n">
-        <v>0.947</v>
+        <v>0.8985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4609856262833675</v>
+        <v>0.851129363449692</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008974074894748505</v>
+        <v>0.02060713494349656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9910259251052514</v>
+        <v>0.9793928650565035</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5390143737166324</v>
+        <v>0.148870636550308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1542857142857143</v>
+        <v>1.282758620689655</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9910259251052514</v>
+        <v>0.9793928650565035</v>
       </c>
       <c r="I10" t="n">
-        <v>0.234979850589058</v>
+        <v>0.4358682491965943</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9445617740232313</v>
+        <v>0.9838619922092376</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05543822597676873</v>
+        <v>0.01613800779076235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8991</v>
+        <v>0.9715</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.8948</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.8800792864222002</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.01824046268490713</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.9817595373150929</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.1199207135777998</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.355371900826446</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9817595373150929</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4491598745535537</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8991</v>
+        <v>0.9864774251229325</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1009</v>
+        <v>0.01352257487706754</v>
       </c>
     </row>
   </sheetData>

--- a/results/multi_eval_metrics.xlsx
+++ b/results/multi_eval_metrics.xlsx
@@ -492,352 +492,352 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9226</v>
+        <v>0.9344</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9772</v>
+        <v>0.9354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2214285714285714</v>
+        <v>0.4948979591836735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001219512195121951</v>
+        <v>0.01784922394678492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.998780487804878</v>
+        <v>0.9821507760532151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7785714285714286</v>
+        <v>0.5051020408163265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01441677588466579</v>
+        <v>0.3252525252525252</v>
       </c>
       <c r="H2" t="n">
-        <v>0.998780487804878</v>
+        <v>0.9821507760532151</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1113240418118467</v>
+        <v>0.2563735915652292</v>
       </c>
       <c r="J2" t="n">
-        <v>0.921919770773639</v>
+        <v>0.9470814624759462</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07808022922636104</v>
+        <v>0.05291853752405384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9701</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9429</v>
+        <v>0.8838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4696035242290749</v>
+        <v>0.8801762114537445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004286520022560632</v>
+        <v>0.01838691483361534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9957134799774394</v>
+        <v>0.9816130851663847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5303964757709252</v>
+        <v>0.1198237885462555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06312292358803986</v>
+        <v>1.198529411764706</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9957134799774394</v>
+        <v>0.9816130851663847</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2369450221258178</v>
+        <v>0.4492815631436799</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9361544172234595</v>
+        <v>0.9846119031455081</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06384558277654051</v>
+        <v>0.01538809685449194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9258</v>
+        <v>0.9175</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9462</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4011627906976744</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01382694023193577</v>
+        <v>0.01349241748438894</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9861730597680642</v>
+        <v>0.9865075825156111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988372093023255</v>
+        <v>0.6821705426356589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2006472491909385</v>
+        <v>0.171875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9861730597680642</v>
+        <v>0.9865075825156111</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2074948654648051</v>
+        <v>0.165660937424365</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9346861128725428</v>
+        <v>0.9262904407915401</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06531388712745723</v>
+        <v>0.0737095592084599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9468</v>
+        <v>0.9199000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9064</v>
+        <v>0.9307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>0.4465346534653465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02547274749721913</v>
+        <v>0.02691879866518354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9745272525027808</v>
+        <v>0.9730812013348165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.5534653465346535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7557755775577558</v>
+        <v>0.4329159212880143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9745272525027808</v>
+        <v>0.9730812013348165</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3627363737486096</v>
+        <v>0.236726726065265</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9665710503089144</v>
+        <v>0.9399376813151391</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03342894969108556</v>
+        <v>0.06006231868486089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9091</v>
+        <v>0.902</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9772999999999999</v>
+        <v>0.9996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1527494908350306</v>
+        <v>0.003054989816700611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008538478598358839</v>
+        <v>0.0001108893324462187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9914615214016411</v>
+        <v>0.9998891106675538</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8472505091649695</v>
+        <v>0.9969450101832994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09254807692307693</v>
+        <v>0.001021450459652707</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9914615214016411</v>
+        <v>0.9998891106675538</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08064398471669471</v>
+        <v>0.001582939574573415</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9148674920699887</v>
+        <v>0.9020608243297319</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08513250793001126</v>
+        <v>0.09793917567026811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8744</v>
+        <v>0.9161</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8002</v>
+        <v>0.9218999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9159192825112108</v>
+        <v>0.4674887892376682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1296662274923145</v>
+        <v>0.03996486605182258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8703337725076855</v>
+        <v>0.9600351339481774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0840807174887892</v>
+        <v>0.5325112107623318</v>
       </c>
       <c r="G7" t="n">
-        <v>15.74666666666667</v>
+        <v>0.7663157894736842</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8703337725076855</v>
+        <v>0.9600351339481774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5227927550017626</v>
+        <v>0.2537268276447454</v>
       </c>
       <c r="J7" t="n">
-        <v>0.990627343164209</v>
+        <v>0.9484759735329211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009372656835791027</v>
+        <v>0.05152402646707888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9414</v>
+        <v>0.9133</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8673999999999999</v>
+        <v>0.8409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8862212943632568</v>
+        <v>0.8778705636743215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05275381552753815</v>
+        <v>0.08294625082946251</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9472461844724619</v>
+        <v>0.9170537491705375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1137787056367432</v>
+        <v>0.1221294363256785</v>
       </c>
       <c r="G8" t="n">
-        <v>4.376146788990826</v>
+        <v>6.410256410256411</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9472461844724619</v>
+        <v>0.9170537491705375</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4694875549453975</v>
+        <v>0.480408407251892</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9874337099377449</v>
+        <v>0.986086336068498</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01256629006225507</v>
+        <v>0.01391366393150195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8435</v>
+        <v>0.9538</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7519</v>
+        <v>0.8914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9455252918287937</v>
+        <v>0.8035019455252919</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1681899242086491</v>
+        <v>0.028979045920642</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8318100757913509</v>
+        <v>0.971020954079358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05447470817120625</v>
+        <v>0.1964980544747081</v>
       </c>
       <c r="G9" t="n">
-        <v>26.94642857142857</v>
+        <v>1.287128712871287</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8318100757913509</v>
+        <v>0.971020954079358</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5568576080187214</v>
+        <v>0.416240495722967</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9925522010905705</v>
+        <v>0.9773390172761948</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007447798909429482</v>
+        <v>0.02266098272380523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9146</v>
+        <v>0.9016999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8902</v>
+        <v>0.8385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6252566735112937</v>
+        <v>0.824435318275154</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05417682251274097</v>
+        <v>0.08996233104365167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9458231774872591</v>
+        <v>0.9100376689563483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3747433264887063</v>
+        <v>0.175564681724846</v>
       </c>
       <c r="G10" t="n">
-        <v>1.33972602739726</v>
+        <v>4.748538011695906</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9458231774872591</v>
+        <v>0.9100376689563483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3397167480120173</v>
+        <v>0.4571988246594029</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9589979779824759</v>
+        <v>0.9796064400715564</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04100202201752412</v>
+        <v>0.02039355992844361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8915999999999999</v>
+        <v>0.8672</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9403</v>
+        <v>0.8027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2586719524281467</v>
+        <v>0.819623389494549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0373707040373707</v>
+        <v>0.1274607941274608</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9626292959626293</v>
+        <v>0.8725392058725392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7413280475718533</v>
+        <v>0.180376610505451</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4491978609625669</v>
+        <v>6.296703296703297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9626292959626293</v>
+        <v>0.8725392058725392</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1480213282327587</v>
+        <v>0.4735420918110049</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9204509199191747</v>
+        <v>0.9773265229849258</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07954908008082529</v>
+        <v>0.02267347701507416</v>
       </c>
     </row>
   </sheetData>
